--- a/dataset/engine-asg/all.xlsx
+++ b/dataset/engine-asg/all.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE22"/>
+  <dimension ref="A1:AE24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3676,6 +3676,312 @@
         </is>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>05/26/2021 01:35:47</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>15.85636666666667</v>
+      </c>
+      <c r="C23" t="n">
+        <v>214.007</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>pro up</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>36.56585</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>145.9644</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>(0, 1, 0)</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>99.37646584957845</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>11.649079999999996</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>(1, 1, 0)</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>99.80039784445479</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>226.85448284034183</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>0.6235341504215544</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>6.014527121466586</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>12.870357260355476</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>0.3827892894750709</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>13.732747429551242</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>0.3753127381775728</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>-0.5335584633554888</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>0.19960215554520802</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>3.0797690398150177</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>32.58820503345792</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>0.0634359724290747</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>50.908588718158796</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>0.1537234503798821</t>
+        </is>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>-0.45280659508732957</t>
+        </is>
+      </c>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>05/26/2021 01:41:07</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.331275</v>
+      </c>
+      <c r="C24" t="n">
+        <v>107.864</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>pro up</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>36.521499999999996</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>145.92680000000001</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>46.638</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>(1, 0, 0)</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>94.08406606054805</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>14.851722047807968</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>(1, 1, 0)</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>99.7293965076169</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>174.20342829445516</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>5.915933939451943</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>1.9122129899699483</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>10.66486330194402</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>5.615117944513655</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>11.72195029117793</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>0.4312751167897604</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>-0.5902001481510506</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>0.27060349238310155</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>10.68202400600074</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>40.19045999964364</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>0.13443730926696823</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>56.01775305310244</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>0.19571213840675972</t>
+        </is>
+      </c>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>-0.36449142777717464</t>
+        </is>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
